--- a/final assignment/data/optimize_results/results_scenario_0_seed_3.xlsx
+++ b/final assignment/data/optimize_results/results_scenario_0_seed_3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN15"/>
+  <dimension ref="A1:AN8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -677,79 +677,79 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U2" t="n">
         <v>2</v>
       </c>
-      <c r="T2" t="n">
-        <v>10</v>
-      </c>
-      <c r="U2" t="n">
-        <v>7</v>
-      </c>
       <c r="V2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>2</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>273309574.6758379</v>
+        <v>204851657.209738</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>433835.5410501959</v>
       </c>
       <c r="AK2" t="n">
-        <v>258203197.7771963</v>
+        <v>83721931.52190953</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>6.153415826220174e-05</v>
       </c>
       <c r="AM2" t="n">
-        <v>408000000</v>
+        <v>869900000</v>
       </c>
       <c r="AN2" t="n">
-        <v>36.94146493528478</v>
+        <v>28.60110555210153</v>
       </c>
     </row>
     <row r="3">
@@ -763,115 +763,115 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>8</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>4</v>
       </c>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="V3" t="n">
+        <v>4</v>
+      </c>
+      <c r="W3" t="n">
         <v>2</v>
       </c>
-      <c r="T3" t="n">
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
         <v>2</v>
       </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>10</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7</v>
-      </c>
-      <c r="X3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1</v>
-      </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AB3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>112429465.5403275</v>
+        <v>76299088.11882158</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3892154.714027535</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>202118567.8571397</v>
+        <v>170416126.3392028</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0005327452981423564</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>989600000</v>
+        <v>843600000</v>
       </c>
       <c r="AN3" t="n">
-        <v>302.634906340352</v>
+        <v>162.0985371758142</v>
       </c>
     </row>
     <row r="4">
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -897,85 +897,85 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>4</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y4" t="n">
         <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE4" t="n">
         <v>2</v>
       </c>
-      <c r="AB4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD4" t="n">
+      <c r="AF4" t="n">
         <v>6</v>
       </c>
-      <c r="AE4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>5</v>
-      </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>184054071.5029832</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>180467612.4060828</v>
+        <v>209978401.231998</v>
       </c>
       <c r="AL4" t="n">
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>627500000</v>
+        <v>675200000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>7.779547595217979</v>
       </c>
     </row>
     <row r="5">
@@ -1004,100 +1004,100 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>9</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>6</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
         <v>2</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>9</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>9</v>
-      </c>
-      <c r="X5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AF5" t="n">
         <v>3</v>
       </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>4</v>
-      </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>72222705.9376919</v>
+        <v>85264360.79025151</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>278162144.498664</v>
+        <v>66045103.44010488</v>
       </c>
       <c r="AL5" t="n">
         <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>1062200000</v>
+        <v>966500000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>69.9073421989778</v>
       </c>
     </row>
     <row r="6">
@@ -1123,7 +1123,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1168,76 +1168,76 @@
         <v>1</v>
       </c>
       <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
         <v>4</v>
       </c>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
         <v>2</v>
       </c>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
       <c r="V6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
         <v>9</v>
       </c>
       <c r="Y6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AA6" t="n">
         <v>9</v>
       </c>
       <c r="AB6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>5802215.391150887</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>106351803.454585</v>
+        <v>137587437.176622</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.0006109007639367815</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1421887.912163961</v>
       </c>
       <c r="AK6" t="n">
-        <v>242638936.0903729</v>
+        <v>132359804.9590683</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.0006072676790963892</v>
       </c>
       <c r="AM6" t="n">
-        <v>438700000</v>
+        <v>589200000</v>
       </c>
       <c r="AN6" t="n">
-        <v>139.6109063479983</v>
+        <v>1629.640409407958</v>
       </c>
     </row>
     <row r="7">
@@ -1245,25 +1245,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1284,64 +1284,64 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R7" t="n">
         <v>1</v>
       </c>
       <c r="S7" t="n">
+        <v>8</v>
+      </c>
+      <c r="T7" t="n">
         <v>5</v>
       </c>
-      <c r="T7" t="n">
-        <v>1</v>
-      </c>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z7" t="n">
         <v>10</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1</v>
       </c>
       <c r="AA7" t="n">
         <v>4</v>
       </c>
       <c r="AB7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AC7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>128509281.3429422</v>
+        <v>184631519.8039994</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>164432458.8545359</v>
+        <v>167690390.9444763</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>660100000</v>
+        <v>535300000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>389.2921507593969</v>
       </c>
     </row>
     <row r="8">
@@ -1370,13 +1370,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1397,944 +1397,90 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
         <v>4</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V8" t="n">
         <v>4</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z8" t="n">
         <v>3</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AA8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF8" t="n">
         <v>9</v>
       </c>
-      <c r="Y8" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>4</v>
-      </c>
       <c r="AG8" t="n">
-        <v>119710311.7388957</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>76299088.11882158</v>
+        <v>126248398.2244257</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.01223197371506104</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>198269928.1172568</v>
+        <v>140822678.0004261</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>286800000</v>
+        <v>935800000</v>
       </c>
       <c r="AN8" t="n">
-        <v>2212.173283536694</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>7</v>
-      </c>
-      <c r="V9" t="n">
-        <v>8</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2</v>
-      </c>
-      <c r="X9" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>47847947.96145424</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>247023104.7883386</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1414900000</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3</v>
-      </c>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
-      <c r="V10" t="n">
-        <v>10</v>
-      </c>
-      <c r="W10" t="n">
-        <v>3</v>
-      </c>
-      <c r="X10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>96223098.04916811</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>231971674.0397828</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1238200000</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" t="n">
-        <v>9</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>8</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>85264360.79025151</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>6932153.569254421</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>81277411.11097889</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0.001197539536601159</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1305500000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>370.8079125548306</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2</v>
-      </c>
-      <c r="U12" t="n">
-        <v>6</v>
-      </c>
-      <c r="V12" t="n">
-        <v>9</v>
-      </c>
-      <c r="W12" t="n">
-        <v>10</v>
-      </c>
-      <c r="X12" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>112429465.5403275</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>340884907.488274</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>417700000</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>1521.925597140994</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2</v>
-      </c>
-      <c r="T13" t="n">
-        <v>6</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" t="n">
-        <v>9</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>102192937.5553315</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>4015972.550960328</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>131312232.006094</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0.004721448685012924</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1147700000</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>10</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>147239991.0047867</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>441122.2676789444</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>42818415.6714978</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0.0005206834798006169</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>658200000</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>10</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>4</v>
-      </c>
-      <c r="U15" t="n">
-        <v>7</v>
-      </c>
-      <c r="V15" t="n">
-        <v>6</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2</v>
-      </c>
-      <c r="X15" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>162062832.0774327</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>223145243.4753212</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>559900000</v>
-      </c>
-      <c r="AN15" t="n">
         <v>0</v>
       </c>
     </row>
